--- a/pred_ohlcv/54_21/2020-01-11 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 PAY ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>1155619.127888979</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1049883.86349178</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1028994.04769178</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>988041.3938917802</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1075174.74909178</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1286328.246309148</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1201914.39666174</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1256279.774791872</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1437782.588326901</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1387764.100520575</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1432803.706620575</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1408446.388120575</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1380150.518320575</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1342838.543120575</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1153007.824520575</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1226620.430420575</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 PAY ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-86005.38017681928</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1155619.127888979</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1049883.86349178</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1028994.04769178</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>988041.3938917802</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1075174.74909178</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1286328.246309148</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1201914.39666174</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1256279.774791872</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1437782.588326901</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1470127.384620575</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1470127.384620575</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1387764.100520575</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1432803.706620575</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1342838.543120575</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1154334.174520575</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1153007.824520575</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1226620.430420575</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1270014.351220575</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1268529.731220575</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1281534.558220575</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1277091.068120575</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1277091.068120575</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1293593.128020575</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1282099.556420575</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1273913.201520575</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1251350.879120575</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1333999.500078966</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1333952.500078966</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1372573.630278966</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1379868.485678966</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1345963.002378966</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
